--- a/Backend/Excel/Final_GraduationRates.xlsx
+++ b/Backend/Excel/Final_GraduationRates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AA5D0-EC05-5E4E-97C4-C4D37B218A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF776AB0-A7A3-3946-97D6-45A33C2E4D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{595F7BAC-765F-2A42-8069-48189E6A5153}"/>
   </bookViews>
@@ -44,18 +44,12 @@
     <t>Total Cohort</t>
   </si>
   <si>
-    <t>Male Completers 150%</t>
-  </si>
-  <si>
     <t>Male Cohort</t>
   </si>
   <si>
     <t xml:space="preserve">Female Cohort </t>
   </si>
   <si>
-    <t xml:space="preserve">Female Completers 150% </t>
-  </si>
-  <si>
     <t>Graduation Rate</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t> 66</t>
   </si>
   <si>
-    <t>CompletersWithin  150%</t>
-  </si>
-  <si>
     <t> 156</t>
   </si>
   <si>
@@ -168,6 +159,15 @@
   </si>
   <si>
     <t> 32</t>
+  </si>
+  <si>
+    <t>six year graduation count</t>
+  </si>
+  <si>
+    <t>Male Completers six years</t>
+  </si>
+  <si>
+    <t>Female Completers six years</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,25 +552,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -578,16 +578,16 @@
         <v>2010</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>0.59</v>
@@ -604,16 +604,16 @@
         <v>2011</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>0.45</v>
@@ -630,16 +630,16 @@
         <v>2012</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>0.54</v>
@@ -656,16 +656,16 @@
         <v>2013</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>0.52</v>
@@ -682,16 +682,16 @@
         <v>2014</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>0.4</v>
@@ -708,16 +708,16 @@
         <v>2015</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
         <v>0.53</v>
@@ -734,16 +734,16 @@
         <v>2016</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
         <v>0.44</v>
@@ -760,16 +760,16 @@
         <v>2017</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>0.52</v>
@@ -786,16 +786,16 @@
         <v>2018</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2">
         <v>0.44</v>
@@ -812,16 +812,16 @@
         <v>2019</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
         <v>0.5</v>
